--- a/medicine/Handicap/Robin_Cavendish/Robin_Cavendish.xlsx
+++ b/medicine/Handicap/Robin_Cavendish/Robin_Cavendish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robin Francis Cavendish (né le 12 mars 1930 à Middleton-by-Youlgreave et mort le 8 août 1994 à Drayton St. Leonard) est un militant britannique pour l'accompagnement et l'aide médicale liés au handicap.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cavendish est touché par la poliomyélite à l'âge de 28 ans, ne lui laissant initialement que trois mois à vivre. Paralysé du cou jusqu'aux pieds et capable de respirer uniquement à l'aide d'un ventilateur mécanique, il joue un rôle déterminant dans l'organisation du suivi de ce handicap en Grande-Bretagne et aide à développer de nombreux dispositifs permettant d'offrir une autonomie aux personnes paralysées.
 Il est le père du producteur Jonathan Cavendish (en).
@@ -543,9 +557,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'histoire de sa vie est adaptée dans le film Breathe (2017) d'Andy Serkis avec l'acteur Andrew Garfield dans le rôle de Cavendish[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire de sa vie est adaptée dans le film Breathe (2017) d'Andy Serkis avec l'acteur Andrew Garfield dans le rôle de Cavendish,.
 </t>
         </is>
       </c>
